--- a/resources/Lecture 08 - P4.xlsx
+++ b/resources/Lecture 08 - P4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ioasiitm-my.sharepoint.com/personal/anmpahwa_icsrpis_iitm_ac_in/Documents/Academia/IIT Madras/Teaching/CE5972/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1231" documentId="11_F25DC773A252ABDACC1048F1295C58385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EC460F2-4B50-4E13-AE37-4E475DD12D8C}"/>
+  <xr:revisionPtr revIDLastSave="2741" documentId="11_F25DC773A252ABDACC1048F1295C58385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04D53A0B-24BA-4D94-9AC1-6E9B3B5DBE42}"/>
   <bookViews>
-    <workbookView xWindow="7950" yWindow="3675" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,10 @@
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$A$11</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$A$12</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$A$13</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sheet1!$A$14</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$A$21</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$A$22</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$A$23</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sheet1!$A$24</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">Sheet1!$B$3</definedName>
     <definedName name="solver_lhs6" localSheetId="0" hidden="1">Sheet1!$B$4</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
@@ -36,7 +36,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">6</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$B$7</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$B$17</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
@@ -45,10 +45,10 @@
     <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">4</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$B$11</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$B$12</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Sheet1!$B$13</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Sheet1!$B$14</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$B$21</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$B$22</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Sheet1!$B$23</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Sheet1!$B$24</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">"integer"</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">"integer"</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>x</t>
   </si>
@@ -91,9 +91,6 @@
     <t>i</t>
   </si>
   <si>
-    <t>Objective</t>
-  </si>
-  <si>
     <t>z</t>
   </si>
   <si>
@@ -106,7 +103,22 @@
     <t>RHS</t>
   </si>
   <si>
-    <t>Decision Variable</t>
+    <t>Total Revenue</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Toll</t>
   </si>
 </sst>
 </file>
@@ -445,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -458,11 +470,11 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -474,7 +486,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -482,69 +494,131 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <f>5000 - 20 * B3</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <f>B3 * (5000 - 2 * B3) + B4 * (6000 - 0.5 * (B4 ^ 2))</f>
-        <v>132500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
+      <c r="B9" s="1">
+        <f>6000 - 0.05 * (B4 ^ 2)</f>
+        <v>4000</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <f>5000 - 20 * B3</f>
-        <v>1000</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1000</v>
+      <c r="A11" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <f>6000 - 0.05 * (B4 ^ 2)</f>
-        <v>4875</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1500</v>
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <f>B3</f>
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1">
-        <v>150</v>
+        <f>B3 * B8</f>
+        <v>300000</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <f>B4 * B9</f>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1">
+        <f>B13 + B14</f>
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <f>B8</f>
+        <v>2000</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <f>B9</f>
+        <v>4000</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <f>B3</f>
+        <v>150</v>
+      </c>
+      <c r="B23" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <f>B4</f>
-        <v>150</v>
-      </c>
-      <c r="B14" s="1">
+        <v>200</v>
+      </c>
+      <c r="B24" s="1">
         <v>150</v>
       </c>
     </row>
